--- a/Data Entry/Zooplankton/Zooplankton Lengths/ANX Zooplankton Lengths.xlsx
+++ b/Data Entry/Zooplankton/Zooplankton Lengths/ANX Zooplankton Lengths.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjf63\Documents\GitHub\triploid-walleye-labwork\Data Entry\Zooplankton\Zooplankton Lengths\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="29">
   <si>
     <t>zoopsampid</t>
   </si>
@@ -52,11 +47,71 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>ANX081418Z02</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>ANX091818Z01</t>
+  </si>
+  <si>
+    <t>ANX091818Z03</t>
+  </si>
+  <si>
+    <t>DBM</t>
+  </si>
+  <si>
+    <t>ANX040819Z01</t>
+  </si>
+  <si>
+    <t>ANX040819Z02</t>
+  </si>
+  <si>
+    <t>ANX040819Z03</t>
+  </si>
+  <si>
+    <t>ANX052919Z01</t>
+  </si>
+  <si>
+    <t>ANX052919Z03</t>
+  </si>
+  <si>
+    <t>DAR</t>
+  </si>
+  <si>
+    <t>DGM</t>
+  </si>
+  <si>
+    <t>ANX062019Z01</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>ANX062019Z02</t>
+  </si>
+  <si>
+    <t>ANX062019Z03</t>
+  </si>
+  <si>
+    <t>DAM</t>
+  </si>
+  <si>
+    <t>ANX092419Z02</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,12 +121,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -371,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="F313" sqref="F313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +544,6146 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>59</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>39</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>38</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>30</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>26</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>36</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>27</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>38</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>33</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>29</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>27</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>34</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>50</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>35</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>35</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>32</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>26</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>34</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>44</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>27</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>28</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>26</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>32</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>38</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>43</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>28</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>35</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>22</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>40</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>34</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>32</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>42</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>24</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>27</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>47</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>42</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>38</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>42</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>52</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>41</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>43</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>39</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>36</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>37</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>39</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>47</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>34</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>37</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>35</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>21</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>30</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>28</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>26</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>28</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>25</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>21</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>23</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>21</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>28</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>26</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>25</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>10</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>48</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>42</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>44</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>42</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>42</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>38</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>48</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>37</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>20</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>45</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>47</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>43</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>44</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>49</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>24</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>46</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>34</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>32</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>41</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" t="s">
+        <v>20</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>43</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>47</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>40</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>46</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>32</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>41</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>34</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>10</v>
+      </c>
+      <c r="E178" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>22</v>
+      </c>
+      <c r="E179" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>20</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>31</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>23</v>
+      </c>
+      <c r="E182" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>22</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>26</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>40</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" s="2">
+        <v>30</v>
+      </c>
+      <c r="E186" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>34</v>
+      </c>
+      <c r="E187" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>25</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>25</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>38</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>44</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>33</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>41</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>23</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>40</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>37</v>
+      </c>
+      <c r="E196" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>38</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>23</v>
+      </c>
+      <c r="E198" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>27</v>
+      </c>
+      <c r="E199" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>40</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>34</v>
+      </c>
+      <c r="E201" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>44</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>41</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>27</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" t="s">
+        <v>25</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>18</v>
+      </c>
+      <c r="E205" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>26</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" t="s">
+        <v>25</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>20</v>
+      </c>
+      <c r="E207" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>33</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>27</v>
+      </c>
+      <c r="E209" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>24</v>
+      </c>
+      <c r="E210" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>23</v>
+      </c>
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>35</v>
+      </c>
+      <c r="E211" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>31</v>
+      </c>
+      <c r="E212" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>23</v>
+      </c>
+      <c r="B213" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>22</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>23</v>
+      </c>
+      <c r="B214" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>23</v>
+      </c>
+      <c r="E214" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>35</v>
+      </c>
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>31</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>23</v>
+      </c>
+      <c r="E217" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>27</v>
+      </c>
+      <c r="E218" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219" t="s">
+        <v>25</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>19</v>
+      </c>
+      <c r="E219" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>30</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>23</v>
+      </c>
+      <c r="B221" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>31</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223">
+        <v>22</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <v>27</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+      <c r="B225" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>27</v>
+      </c>
+      <c r="E225" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>24</v>
+      </c>
+      <c r="B226" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>24</v>
+      </c>
+      <c r="B227" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>43</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>24</v>
+      </c>
+      <c r="B228" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>29</v>
+      </c>
+      <c r="E228" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>24</v>
+      </c>
+      <c r="B229" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>34</v>
+      </c>
+      <c r="E229" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>37</v>
+      </c>
+      <c r="E230" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>24</v>
+      </c>
+      <c r="B231" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>28</v>
+      </c>
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>24</v>
+      </c>
+      <c r="B232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>40</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>24</v>
+      </c>
+      <c r="B233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>18</v>
+      </c>
+      <c r="E233" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>24</v>
+      </c>
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>17</v>
+      </c>
+      <c r="E234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>32</v>
+      </c>
+      <c r="E235" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>42</v>
+      </c>
+      <c r="E236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>24</v>
+      </c>
+      <c r="B237" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>40</v>
+      </c>
+      <c r="E237" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>24</v>
+      </c>
+      <c r="B238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>37</v>
+      </c>
+      <c r="E238" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>24</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>22</v>
+      </c>
+      <c r="E239" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>24</v>
+      </c>
+      <c r="B240" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>20</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>39</v>
+      </c>
+      <c r="E241" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>24</v>
+      </c>
+      <c r="B242" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>30</v>
+      </c>
+      <c r="E242" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>24</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>41</v>
+      </c>
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>24</v>
+      </c>
+      <c r="B244" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>36</v>
+      </c>
+      <c r="E244" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>24</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>33</v>
+      </c>
+      <c r="E245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>24</v>
+      </c>
+      <c r="B246" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>30</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>24</v>
+      </c>
+      <c r="B247" t="s">
+        <v>22</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>35</v>
+      </c>
+      <c r="E247" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>24</v>
+      </c>
+      <c r="B248" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+      <c r="D248">
+        <v>18</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>42</v>
+      </c>
+      <c r="E249" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>23</v>
+      </c>
+      <c r="E250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>33</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>36</v>
+      </c>
+      <c r="E252" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>24</v>
+      </c>
+      <c r="B253" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>35</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>18</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255" t="s">
+        <v>25</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>19</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>30</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>30</v>
+      </c>
+      <c r="E257" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+      <c r="B258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>19</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>24</v>
+      </c>
+      <c r="B259" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>27</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>24</v>
+      </c>
+      <c r="B260" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>23</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>28</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" t="s">
+        <v>25</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>31</v>
+      </c>
+      <c r="E262" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263" t="s">
+        <v>25</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>21</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>24</v>
+      </c>
+      <c r="B264" t="s">
+        <v>25</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>22</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" t="s">
+        <v>25</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>29</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>19</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>27</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>30</v>
+      </c>
+      <c r="E268" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>33</v>
+      </c>
+      <c r="E269" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>28</v>
+      </c>
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>20</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>30</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+      <c r="D273">
+        <v>30</v>
+      </c>
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>28</v>
+      </c>
+      <c r="E274" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>24</v>
+      </c>
+      <c r="B275" t="s">
+        <v>20</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>51</v>
+      </c>
+      <c r="E275" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" t="s">
+        <v>20</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>36</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>24</v>
+      </c>
+      <c r="B277" t="s">
+        <v>20</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>42</v>
+      </c>
+      <c r="E277" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" t="s">
+        <v>20</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278">
+        <v>36</v>
+      </c>
+      <c r="E278" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>24</v>
+      </c>
+      <c r="B279" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <v>41</v>
+      </c>
+      <c r="E279" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280" t="s">
+        <v>20</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>44</v>
+      </c>
+      <c r="E280" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" t="s">
+        <v>20</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281">
+        <v>52</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282">
+        <v>50</v>
+      </c>
+      <c r="E282" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+      <c r="D283">
+        <v>31</v>
+      </c>
+      <c r="E283" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>24</v>
+      </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>11</v>
+      </c>
+      <c r="E284" t="s">
+        <v>8</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>8</v>
+      </c>
+      <c r="E285" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>10</v>
+      </c>
+      <c r="E286" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>24</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>9</v>
+      </c>
+      <c r="E287" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>24</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288">
+        <v>12</v>
+      </c>
+      <c r="E288" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>24</v>
+      </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>11</v>
+      </c>
+      <c r="E289" t="s">
+        <v>8</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>24</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290">
+        <v>12</v>
+      </c>
+      <c r="E290" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>24</v>
+      </c>
+      <c r="B291" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+      <c r="D291">
+        <v>13</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>24</v>
+      </c>
+      <c r="B292" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>13</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>24</v>
+      </c>
+      <c r="B293" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293">
+        <v>12</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>24</v>
+      </c>
+      <c r="B294" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294">
+        <v>12</v>
+      </c>
+      <c r="E294" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>24</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>14</v>
+      </c>
+      <c r="E295" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>26</v>
+      </c>
+      <c r="B296" t="s">
+        <v>27</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>27</v>
+      </c>
+      <c r="E296" t="s">
+        <v>28</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>26</v>
+      </c>
+      <c r="B297" t="s">
+        <v>27</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>22</v>
+      </c>
+      <c r="E297" t="s">
+        <v>28</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>26</v>
+      </c>
+      <c r="B298" t="s">
+        <v>27</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>32</v>
+      </c>
+      <c r="E298" t="s">
+        <v>28</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>26</v>
+      </c>
+      <c r="B299" t="s">
+        <v>27</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>32</v>
+      </c>
+      <c r="E299" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>26</v>
+      </c>
+      <c r="B300" t="s">
+        <v>10</v>
+      </c>
+      <c r="C300">
+        <v>3</v>
+      </c>
+      <c r="D300">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>26</v>
+      </c>
+      <c r="B301" t="s">
+        <v>20</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+      <c r="D301">
+        <v>39</v>
+      </c>
+      <c r="E301" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>26</v>
+      </c>
+      <c r="B302" t="s">
+        <v>20</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>39</v>
+      </c>
+      <c r="E302" t="s">
+        <v>8</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>26</v>
+      </c>
+      <c r="B303" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>41</v>
+      </c>
+      <c r="E303" t="s">
+        <v>8</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>26</v>
+      </c>
+      <c r="B304" t="s">
+        <v>20</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>41</v>
+      </c>
+      <c r="E304" t="s">
+        <v>8</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>26</v>
+      </c>
+      <c r="B305" t="s">
+        <v>20</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>44</v>
+      </c>
+      <c r="E305" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>26</v>
+      </c>
+      <c r="B306" t="s">
+        <v>25</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>37</v>
+      </c>
+      <c r="E306" t="s">
+        <v>8</v>
+      </c>
+      <c r="F306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>26</v>
+      </c>
+      <c r="B307" t="s">
+        <v>25</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>23</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>26</v>
+      </c>
+      <c r="B308" t="s">
+        <v>25</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>30</v>
+      </c>
+      <c r="E308" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>26</v>
+      </c>
+      <c r="B309" t="s">
+        <v>25</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <v>31</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>26</v>
+      </c>
+      <c r="B310" t="s">
+        <v>22</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+      <c r="D310">
+        <v>39</v>
+      </c>
+      <c r="E310" t="s">
+        <v>8</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>26</v>
+      </c>
+      <c r="B311" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311">
+        <v>3</v>
+      </c>
+      <c r="D311">
+        <v>38</v>
+      </c>
+      <c r="E311" t="s">
+        <v>8</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>26</v>
+      </c>
+      <c r="B312" t="s">
+        <v>22</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <v>29</v>
+      </c>
+      <c r="E312" t="s">
+        <v>28</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
